--- a/8-PivotTable/example.xlsx
+++ b/8-PivotTable/example.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srimathi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srimathi\OneDrive\Documents\UiPath\CS19P21-ARPA\8-PivotTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD6EAED-B93F-4CD2-8100-7DF98D4A6411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C87DEF-FBF7-4E47-8128-80A51AF08CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4008" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pivot Table" sheetId="4" r:id="rId1"/>
+    <sheet name="Pivot Table" sheetId="2" r:id="rId1"/>
     <sheet name="SalesOrders" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId3"/>
+    <pivotCache cacheId="11" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -94,25 +94,25 @@
     <t>Markers</t>
   </si>
   <si>
+    <t>Count of OrderDate</t>
+  </si>
+  <si>
     <t>Row Labels</t>
   </si>
   <si>
-    <t>(blank)</t>
-  </si>
-  <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of Total</t>
-  </si>
-  <si>
-    <t>Count of OrderDate</t>
   </si>
   <si>
     <t>Sum of Units</t>
   </si>
   <si>
     <t>Sum of Unit Cost</t>
+  </si>
+  <si>
+    <t>Sum of Total</t>
+  </si>
+  <si>
+    <t>(blank)</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -268,6 +268,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -278,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -501,7 +502,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="srimathi" refreshedDate="45511.413859375003" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="21" xr:uid="{0176681C-7468-49E0-BF7C-6030880BBD20}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="srimathi" refreshedDate="45614.332786805557" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="21" xr:uid="{BF8EBEB4-F95A-4C56-9387-89C9ACE455EB}">
   <cacheSource type="worksheet">
     <worksheetSource name="table"/>
   </cacheSource>
@@ -755,7 +756,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C7BA279-7F82-49D5-A0E1-E9E2AD0BE978}" name="pivot" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2ED8D24-F8DA-4049-960A-9F0120AB6D00}" name="pivot" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:E22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
@@ -889,8 +890,8 @@
   <dataFields count="4">
     <dataField name="Count of OrderDate" fld="0" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Units" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Unit Cost" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Total" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Unit Cost" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Total" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1208,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304EE882-831C-4C96-8958-FA149F838E1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FB9B08-8729-41AE-9364-B6D8864295E0}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1223,352 +1224,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="19">
+        <v>7</v>
+      </c>
+      <c r="C2" s="19">
+        <v>190</v>
+      </c>
+      <c r="D2" s="24">
+        <v>283.11</v>
+      </c>
+      <c r="E2" s="24">
+        <v>2203.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>14</v>
+      </c>
+      <c r="D3" s="24">
+        <v>2.29</v>
+      </c>
+      <c r="E3" s="24">
+        <v>32.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19">
+        <v>14</v>
+      </c>
+      <c r="D4" s="24">
+        <v>2.29</v>
+      </c>
+      <c r="E4" s="24">
+        <v>32.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19">
+        <v>60</v>
+      </c>
+      <c r="D5" s="24">
+        <v>4.58</v>
+      </c>
+      <c r="E5" s="24">
+        <v>137.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="19">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19">
+        <v>60</v>
+      </c>
+      <c r="D6" s="24">
+        <v>4.58</v>
+      </c>
+      <c r="E6" s="24">
+        <v>137.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19">
+        <v>47</v>
+      </c>
+      <c r="D7" s="24">
+        <v>148.94999999999999</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1630.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19">
+        <v>5</v>
+      </c>
+      <c r="D8" s="24">
+        <v>125</v>
+      </c>
+      <c r="E8" s="24">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19">
+        <v>42</v>
+      </c>
+      <c r="D9" s="24">
+        <v>23.95</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1005.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19">
+        <v>69</v>
+      </c>
+      <c r="D10" s="24">
+        <v>127.29</v>
+      </c>
+      <c r="E10" s="24">
+        <v>403.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2</v>
+      </c>
+      <c r="D11" s="24">
+        <v>125</v>
+      </c>
+      <c r="E11" s="24">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19">
+        <v>67</v>
+      </c>
+      <c r="D12" s="24">
+        <v>2.29</v>
+      </c>
+      <c r="E12" s="24">
+        <v>153.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="19">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19">
+        <v>67</v>
+      </c>
+      <c r="D13" s="24">
+        <v>314.98</v>
+      </c>
+      <c r="E13" s="24">
+        <v>2104.3599999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="19">
+        <v>2</v>
+      </c>
+      <c r="C14" s="19">
+        <v>10</v>
+      </c>
+      <c r="D14" s="24">
+        <v>294.99</v>
+      </c>
+      <c r="E14" s="24">
+        <v>964.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>1</v>
+      </c>
+      <c r="C15" s="19">
+        <v>3</v>
+      </c>
+      <c r="D15" s="24">
+        <v>275</v>
+      </c>
+      <c r="E15" s="24">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19">
+        <v>7</v>
+      </c>
+      <c r="D16" s="24">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E16" s="24">
+        <v>139.92999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19">
+        <v>57</v>
+      </c>
+      <c r="D17" s="24">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E17" s="24">
+        <v>1139.4299999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+      <c r="C18" s="19">
+        <v>57</v>
+      </c>
+      <c r="D18" s="24">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E18" s="24">
+        <v>1139.4299999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="23">
-        <v>7</v>
-      </c>
-      <c r="C2" s="23">
-        <v>190</v>
-      </c>
-      <c r="D2" s="23">
-        <v>283.11</v>
-      </c>
-      <c r="E2" s="23">
-        <v>2203.79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="23">
-        <v>1</v>
-      </c>
-      <c r="C3" s="23">
-        <v>14</v>
-      </c>
-      <c r="D3" s="23">
-        <v>2.29</v>
-      </c>
-      <c r="E3" s="23">
-        <v>32.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="23">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23">
-        <v>14</v>
-      </c>
-      <c r="D4" s="23">
-        <v>2.29</v>
-      </c>
-      <c r="E4" s="23">
-        <v>32.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="23">
-        <v>2</v>
-      </c>
-      <c r="C5" s="23">
-        <v>60</v>
-      </c>
-      <c r="D5" s="23">
-        <v>4.58</v>
-      </c>
-      <c r="E5" s="23">
-        <v>137.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="23">
-        <v>2</v>
-      </c>
-      <c r="C6" s="23">
-        <v>60</v>
-      </c>
-      <c r="D6" s="23">
-        <v>4.58</v>
-      </c>
-      <c r="E6" s="23">
-        <v>137.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23">
-        <v>2</v>
-      </c>
-      <c r="C7" s="23">
-        <v>47</v>
-      </c>
-      <c r="D7" s="23">
-        <v>148.94999999999999</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1630.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="23">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23">
-        <v>5</v>
-      </c>
-      <c r="D8" s="23">
-        <v>125</v>
-      </c>
-      <c r="E8" s="23">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="23">
-        <v>1</v>
-      </c>
-      <c r="C9" s="23">
-        <v>42</v>
-      </c>
-      <c r="D9" s="23">
-        <v>23.95</v>
-      </c>
-      <c r="E9" s="23">
-        <v>1005.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="23">
-        <v>2</v>
-      </c>
-      <c r="C10" s="23">
-        <v>69</v>
-      </c>
-      <c r="D10" s="23">
-        <v>127.29</v>
-      </c>
-      <c r="E10" s="23">
-        <v>403.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="23">
-        <v>1</v>
-      </c>
-      <c r="C11" s="23">
-        <v>2</v>
-      </c>
-      <c r="D11" s="23">
-        <v>125</v>
-      </c>
-      <c r="E11" s="23">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="23">
-        <v>1</v>
-      </c>
-      <c r="C12" s="23">
-        <v>67</v>
-      </c>
-      <c r="D12" s="23">
-        <v>2.29</v>
-      </c>
-      <c r="E12" s="23">
-        <v>153.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="23">
-        <v>3</v>
-      </c>
-      <c r="C13" s="23">
-        <v>67</v>
-      </c>
-      <c r="D13" s="23">
-        <v>314.98</v>
-      </c>
-      <c r="E13" s="23">
-        <v>2104.3599999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="23">
-        <v>2</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
         <v>10</v>
       </c>
-      <c r="D14" s="23">
-        <v>294.99</v>
-      </c>
-      <c r="E14" s="23">
-        <v>964.93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="23">
-        <v>1</v>
-      </c>
-      <c r="C15" s="23">
-        <v>3</v>
-      </c>
-      <c r="D15" s="23">
-        <v>275</v>
-      </c>
-      <c r="E15" s="23">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="23">
-        <v>1</v>
-      </c>
-      <c r="C16" s="23">
-        <v>7</v>
-      </c>
-      <c r="D16" s="23">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="E16" s="23">
-        <v>139.92999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="23">
-        <v>1</v>
-      </c>
-      <c r="C17" s="23">
-        <v>57</v>
-      </c>
-      <c r="D17" s="23">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1139.4299999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="23">
-        <v>1</v>
-      </c>
-      <c r="C18" s="23">
-        <v>57</v>
-      </c>
-      <c r="D18" s="23">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="E18" s="23">
-        <v>1139.4299999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="23">
-        <v>10</v>
-      </c>
-      <c r="C22" s="23">
+      <c r="C22" s="19">
         <v>257</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="24">
         <v>598.09</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="24">
         <v>4308.1499999999996</v>
       </c>
     </row>
@@ -1582,8 +1583,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2818,34 +2819,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b7a32e9a-83ed-4fc1-afd2-24748cc0fd29" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1103b93a-9ee9-47ae-aa92-e31c5ef9a1ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="b7a32e9a-83ed-4fc1-afd2-24748cc0fd29">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="1103b93a-9ee9-47ae-aa92-e31c5ef9a1ca" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100640219CDDE981245A35CC9C2134D8B03" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b6277c6e191b84b85c9c8695654794d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1103b93a-9ee9-47ae-aa92-e31c5ef9a1ca" xmlns:ns3="b7a32e9a-83ed-4fc1-afd2-24748cc0fd29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="126733d01f79f7f731e3d21e095d20f3" ns2:_="" ns3:_="">
     <xsd:import namespace="1103b93a-9ee9-47ae-aa92-e31c5ef9a1ca"/>
@@ -3076,10 +3049,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b7a32e9a-83ed-4fc1-afd2-24748cc0fd29" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1103b93a-9ee9-47ae-aa92-e31c5ef9a1ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="b7a32e9a-83ed-4fc1-afd2-24748cc0fd29">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="1103b93a-9ee9-47ae-aa92-e31c5ef9a1ca" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749A5040-77E3-4EEE-8702-C0686D779888}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88F9AA24-52CD-4E6A-83FC-8D6439C9C9DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1103b93a-9ee9-47ae-aa92-e31c5ef9a1ca"/>
+    <ds:schemaRef ds:uri="b7a32e9a-83ed-4fc1-afd2-24748cc0fd29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3096,20 +3108,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88F9AA24-52CD-4E6A-83FC-8D6439C9C9DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749A5040-77E3-4EEE-8702-C0686D779888}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1103b93a-9ee9-47ae-aa92-e31c5ef9a1ca"/>
-    <ds:schemaRef ds:uri="b7a32e9a-83ed-4fc1-afd2-24748cc0fd29"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>